--- a/homeworks/homework_10/yevhenii_vinichenko/data/plot2/1-1_achievement-results-M4.xlsx
+++ b/homeworks/homework_10/yevhenii_vinichenko/data/plot2/1-1_achievement-results-M4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yevhe\Documents\TWD\2021Z-DataVisualizationTechniques\homeworks\homework_10\yevhenii_vinichenko\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yevhe\Documents\TWD\2021Z-DataVisualizationTechniques\homeworks\homework_10\yevhenii_vinichenko\data\plot2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2279F01-D09F-4CD1-B5F0-5B0C47A38F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB45FB1A-1564-4A75-BC2B-308885E55117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'G4 MAT 1.1'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'G4 MAT 1.2'!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="yes" guid="{D8155655-F7A3-4BDA-88A8-C340C532D887}" includePrintSettings="0" xWindow="184" windowWidth="1375" windowHeight="1040" activeSheetId="13" showComments="commIndAndComment"/>
   </customWorkbookViews>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>Kuwait</t>
-  </si>
-  <si>
-    <t>South Africa (5)</t>
   </si>
   <si>
     <t>Pakistan</t>
@@ -587,6 +584,9 @@
   </si>
   <si>
     <t>Turkey</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
 </sst>
 </file>
@@ -4284,8 +4284,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.26953125" defaultRowHeight="13"/>
@@ -4355,20 +4355,20 @@
       <c r="G6" s="209"/>
       <c r="H6" s="66"/>
       <c r="I6" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="67" t="s">
-        <v>86</v>
-      </c>
       <c r="K6" s="203" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L6" s="203"/>
       <c r="M6" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="67" t="s">
         <v>87</v>
-      </c>
-      <c r="N6" s="67" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17.5" customHeight="1">
@@ -4757,7 +4757,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13">
@@ -5213,7 +5213,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="13">
@@ -6491,7 +6491,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="13">
@@ -6529,7 +6529,7 @@
         <v>20</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="19">
@@ -6567,7 +6567,7 @@
         <v>20</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="61">
@@ -6621,7 +6621,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="13">
@@ -6659,7 +6659,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="38">
@@ -6697,7 +6697,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="13">
@@ -6735,7 +6735,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="38">
@@ -6773,7 +6773,7 @@
         <v>2</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="43">
@@ -6811,7 +6811,7 @@
         <v>14</v>
       </c>
       <c r="C72" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72" s="47"/>
       <c r="E72" s="48">
@@ -7335,7 +7335,7 @@
     <row r="1" spans="1:102" customFormat="1" ht="22.5" customHeight="1"/>
     <row r="2" spans="1:102" s="75" customFormat="1" ht="25.5" customHeight="1">
       <c r="A2" s="212" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="212"/>
       <c r="C2" s="212"/>
@@ -7432,7 +7432,7 @@
     </row>
     <row r="6" spans="1:102" s="75" customFormat="1" ht="33.75" customHeight="1">
       <c r="B6" s="213" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="213"/>
       <c r="D6" s="213"/>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="214" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="214"/>
       <c r="G8" s="82"/>
@@ -7672,104 +7672,104 @@
         <v xml:space="preserve">Croatia </v>
       </c>
       <c r="AP8" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ8" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="AQ8" s="87" t="s">
+      <c r="AR8" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="AR8" s="85" t="s">
+      <c r="AS8" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="AS8" s="84" t="s">
+      <c r="AT8" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="AT8" s="90" t="s">
+      <c r="AU8" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="AU8" s="91" t="s">
+      <c r="AV8" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="AV8" s="83" t="s">
+      <c r="AW8" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="AW8" s="84" t="s">
+      <c r="AX8" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="AX8" s="85" t="s">
+      <c r="AY8" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="AY8" s="92" t="s">
+      <c r="AZ8" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="AZ8" s="93" t="s">
+      <c r="BA8" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="BA8" s="87" t="s">
+      <c r="BB8" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="BB8" s="85" t="s">
+      <c r="BC8" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="BC8" s="84" t="s">
+      <c r="BD8" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="BD8" s="90" t="s">
+      <c r="BE8" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="BE8" s="91" t="s">
+      <c r="BF8" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="BF8" s="85" t="s">
+      <c r="BG8" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="BG8" s="84" t="s">
+      <c r="BH8" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="BH8" s="85" t="s">
+      <c r="BI8" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="BI8" s="92" t="s">
+      <c r="BJ8" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="BJ8" s="93" t="s">
+      <c r="BK8" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="BK8" s="87" t="s">
+      <c r="BL8" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="BL8" s="94" t="s">
+      <c r="BM8" s="95" t="s">
         <v>114</v>
-      </c>
-      <c r="BM8" s="95" t="s">
-        <v>115</v>
       </c>
       <c r="BN8" s="215" t="s">
         <v>0</v>
       </c>
       <c r="BO8" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="BP8" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="BP8" s="96" t="s">
+      <c r="BQ8" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="BQ8" s="85" t="s">
+      <c r="BR8" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="BR8" s="96" t="s">
+      <c r="BS8" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="BS8" s="86" t="s">
+      <c r="BT8" s="97" t="s">
         <v>120</v>
-      </c>
-      <c r="BT8" s="97" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:102" ht="17.5" customHeight="1">
       <c r="A9" s="98"/>
       <c r="B9" s="99"/>
       <c r="C9" s="100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="101"/>
       <c r="E9" s="102">
@@ -7982,7 +7982,7 @@
       <c r="A10" s="98"/>
       <c r="B10" s="111"/>
       <c r="C10" s="112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="101"/>
       <c r="E10" s="113">
@@ -8195,7 +8195,7 @@
       <c r="A11" s="98"/>
       <c r="B11" s="99"/>
       <c r="C11" s="100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="101"/>
       <c r="E11" s="102">
@@ -8408,7 +8408,7 @@
       <c r="A12" s="98"/>
       <c r="B12" s="111"/>
       <c r="C12" s="112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="101"/>
       <c r="E12" s="113">
@@ -8621,7 +8621,7 @@
       <c r="A13" s="98"/>
       <c r="B13" s="122"/>
       <c r="C13" s="123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="101"/>
       <c r="E13" s="124">
@@ -8834,7 +8834,7 @@
       <c r="A14" s="98"/>
       <c r="B14" s="133"/>
       <c r="C14" s="134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="101"/>
       <c r="E14" s="135">
@@ -9047,7 +9047,7 @@
       <c r="A15" s="98"/>
       <c r="B15" s="99"/>
       <c r="C15" s="100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="101"/>
       <c r="E15" s="102">
@@ -9260,7 +9260,7 @@
       <c r="A16" s="98"/>
       <c r="B16" s="111"/>
       <c r="C16" s="112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="101"/>
       <c r="E16" s="113">
@@ -9473,7 +9473,7 @@
       <c r="A17" s="98"/>
       <c r="B17" s="99"/>
       <c r="C17" s="100" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="101"/>
       <c r="E17" s="102">
@@ -9686,7 +9686,7 @@
       <c r="A18" s="98"/>
       <c r="B18" s="143"/>
       <c r="C18" s="144" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="101"/>
       <c r="E18" s="145">
@@ -9899,7 +9899,7 @@
       <c r="A19" s="98"/>
       <c r="B19" s="153"/>
       <c r="C19" s="154" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="101"/>
       <c r="E19" s="155">
@@ -10112,7 +10112,7 @@
       <c r="A20" s="98"/>
       <c r="B20" s="111"/>
       <c r="C20" s="112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="101"/>
       <c r="E20" s="113">
@@ -10325,7 +10325,7 @@
       <c r="A21" s="98"/>
       <c r="B21" s="99"/>
       <c r="C21" s="100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="101"/>
       <c r="E21" s="102">
@@ -10538,7 +10538,7 @@
       <c r="A22" s="98"/>
       <c r="B22" s="111"/>
       <c r="C22" s="112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="101"/>
       <c r="E22" s="113">
@@ -10751,7 +10751,7 @@
       <c r="A23" s="98"/>
       <c r="B23" s="122"/>
       <c r="C23" s="123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="101"/>
       <c r="E23" s="124">
@@ -10964,7 +10964,7 @@
       <c r="A24" s="98"/>
       <c r="B24" s="133"/>
       <c r="C24" s="134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" s="101"/>
       <c r="E24" s="135">
@@ -11177,7 +11177,7 @@
       <c r="A25" s="98"/>
       <c r="B25" s="99"/>
       <c r="C25" s="100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="101"/>
       <c r="E25" s="102">
@@ -11390,7 +11390,7 @@
       <c r="A26" s="98"/>
       <c r="B26" s="111"/>
       <c r="C26" s="112" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="101"/>
       <c r="E26" s="113">
@@ -11603,7 +11603,7 @@
       <c r="A27" s="98"/>
       <c r="B27" s="99"/>
       <c r="C27" s="100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" s="101"/>
       <c r="E27" s="102">
@@ -11816,7 +11816,7 @@
       <c r="A28" s="98"/>
       <c r="B28" s="143"/>
       <c r="C28" s="144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28" s="101"/>
       <c r="E28" s="145">
@@ -12029,7 +12029,7 @@
       <c r="A29" s="98"/>
       <c r="B29" s="153"/>
       <c r="C29" s="154" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="101"/>
       <c r="E29" s="155">
@@ -12242,7 +12242,7 @@
       <c r="A30" s="98"/>
       <c r="B30" s="111"/>
       <c r="C30" s="112" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" s="101"/>
       <c r="E30" s="113">
@@ -12455,7 +12455,7 @@
       <c r="A31" s="98"/>
       <c r="B31" s="99"/>
       <c r="C31" s="100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D31" s="101"/>
       <c r="E31" s="102">
@@ -12668,7 +12668,7 @@
       <c r="A32" s="98"/>
       <c r="B32" s="111"/>
       <c r="C32" s="112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D32" s="101"/>
       <c r="E32" s="113">
@@ -12881,7 +12881,7 @@
       <c r="A33" s="98"/>
       <c r="B33" s="122"/>
       <c r="C33" s="123" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="101"/>
       <c r="E33" s="124">
@@ -13094,7 +13094,7 @@
       <c r="A34" s="98"/>
       <c r="B34" s="133"/>
       <c r="C34" s="134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="101"/>
       <c r="E34" s="135">
@@ -13307,7 +13307,7 @@
       <c r="A35" s="98"/>
       <c r="B35" s="99"/>
       <c r="C35" s="100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="101"/>
       <c r="E35" s="102">
@@ -13520,7 +13520,7 @@
       <c r="A36" s="98"/>
       <c r="B36" s="111"/>
       <c r="C36" s="112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D36" s="101"/>
       <c r="E36" s="113">
@@ -13733,7 +13733,7 @@
       <c r="A37" s="98"/>
       <c r="B37" s="99"/>
       <c r="C37" s="100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D37" s="101"/>
       <c r="E37" s="102">
@@ -13946,7 +13946,7 @@
       <c r="A38" s="98"/>
       <c r="B38" s="143"/>
       <c r="C38" s="144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" s="101"/>
       <c r="E38" s="145">
@@ -14159,7 +14159,7 @@
       <c r="A39" s="98"/>
       <c r="B39" s="153"/>
       <c r="C39" s="154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D39" s="101"/>
       <c r="E39" s="155">
@@ -14372,7 +14372,7 @@
       <c r="A40" s="98"/>
       <c r="B40" s="111"/>
       <c r="C40" s="112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D40" s="101"/>
       <c r="E40" s="113">
@@ -14585,7 +14585,7 @@
       <c r="A41" s="98"/>
       <c r="B41" s="99"/>
       <c r="C41" s="100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D41" s="101"/>
       <c r="E41" s="102">
@@ -14798,7 +14798,7 @@
       <c r="A42" s="98"/>
       <c r="B42" s="111"/>
       <c r="C42" s="112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D42" s="101"/>
       <c r="E42" s="113">
@@ -15011,7 +15011,7 @@
       <c r="A43" s="98"/>
       <c r="B43" s="122"/>
       <c r="C43" s="123" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="101"/>
       <c r="E43" s="124">
@@ -15224,7 +15224,7 @@
       <c r="A44" s="98"/>
       <c r="B44" s="133"/>
       <c r="C44" s="134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="101"/>
       <c r="E44" s="135">
@@ -15437,7 +15437,7 @@
       <c r="A45" s="98"/>
       <c r="B45" s="99"/>
       <c r="C45" s="100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45" s="101"/>
       <c r="E45" s="102">
@@ -15650,7 +15650,7 @@
       <c r="A46" s="98"/>
       <c r="B46" s="111"/>
       <c r="C46" s="112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" s="101"/>
       <c r="E46" s="113">
@@ -15863,7 +15863,7 @@
       <c r="A47" s="98"/>
       <c r="B47" s="99"/>
       <c r="C47" s="100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="101"/>
       <c r="E47" s="102">
@@ -16076,7 +16076,7 @@
       <c r="A48" s="98"/>
       <c r="B48" s="143"/>
       <c r="C48" s="144" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" s="101"/>
       <c r="E48" s="145">
@@ -16289,7 +16289,7 @@
       <c r="A49" s="98"/>
       <c r="B49" s="153"/>
       <c r="C49" s="154" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" s="101"/>
       <c r="E49" s="155">
@@ -16502,7 +16502,7 @@
       <c r="A50" s="98"/>
       <c r="B50" s="111"/>
       <c r="C50" s="112" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" s="101"/>
       <c r="E50" s="113">
@@ -16715,7 +16715,7 @@
       <c r="A51" s="98"/>
       <c r="B51" s="99"/>
       <c r="C51" s="100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D51" s="101"/>
       <c r="E51" s="102">
@@ -16928,7 +16928,7 @@
       <c r="A52" s="98"/>
       <c r="B52" s="111"/>
       <c r="C52" s="112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D52" s="101"/>
       <c r="E52" s="113">
@@ -17141,7 +17141,7 @@
       <c r="A53" s="98"/>
       <c r="B53" s="122"/>
       <c r="C53" s="123" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" s="101"/>
       <c r="E53" s="124">
@@ -17354,7 +17354,7 @@
       <c r="A54" s="98"/>
       <c r="B54" s="133"/>
       <c r="C54" s="134" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D54" s="101"/>
       <c r="E54" s="135">
@@ -17567,7 +17567,7 @@
       <c r="A55" s="98"/>
       <c r="B55" s="99"/>
       <c r="C55" s="100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D55" s="101"/>
       <c r="E55" s="102">
@@ -17780,7 +17780,7 @@
       <c r="A56" s="98"/>
       <c r="B56" s="111"/>
       <c r="C56" s="112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D56" s="101"/>
       <c r="E56" s="113">
@@ -17993,7 +17993,7 @@
       <c r="A57" s="98"/>
       <c r="B57" s="99"/>
       <c r="C57" s="100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D57" s="101"/>
       <c r="E57" s="102">
@@ -18206,7 +18206,7 @@
       <c r="A58" s="98"/>
       <c r="B58" s="143"/>
       <c r="C58" s="144" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D58" s="101"/>
       <c r="E58" s="145">
@@ -18419,7 +18419,7 @@
       <c r="A59" s="98"/>
       <c r="B59" s="153"/>
       <c r="C59" s="154" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D59" s="101"/>
       <c r="E59" s="155">
@@ -18632,7 +18632,7 @@
       <c r="A60" s="98"/>
       <c r="B60" s="111"/>
       <c r="C60" s="112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D60" s="101"/>
       <c r="E60" s="113">
@@ -18845,7 +18845,7 @@
       <c r="A61" s="98"/>
       <c r="B61" s="99"/>
       <c r="C61" s="100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D61" s="101"/>
       <c r="E61" s="102">
@@ -19058,7 +19058,7 @@
       <c r="A62" s="98"/>
       <c r="B62" s="111"/>
       <c r="C62" s="112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D62" s="101"/>
       <c r="E62" s="113">
@@ -19271,7 +19271,7 @@
       <c r="A63" s="98"/>
       <c r="B63" s="122"/>
       <c r="C63" s="123" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D63" s="101"/>
       <c r="E63" s="124">
@@ -19484,7 +19484,7 @@
       <c r="A64" s="98"/>
       <c r="B64" s="111"/>
       <c r="C64" s="112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D64" s="101"/>
       <c r="E64" s="113">
@@ -19697,7 +19697,7 @@
       <c r="A65" s="98"/>
       <c r="B65" s="99"/>
       <c r="C65" s="100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D65" s="101"/>
       <c r="E65" s="102">
@@ -19910,7 +19910,7 @@
       <c r="A66" s="98"/>
       <c r="B66" s="111"/>
       <c r="C66" s="112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D66" s="101"/>
       <c r="E66" s="113">
@@ -20204,7 +20204,7 @@
       <c r="A68" s="98"/>
       <c r="B68" s="153"/>
       <c r="C68" s="154" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D68" s="101"/>
       <c r="E68" s="155">
@@ -20417,7 +20417,7 @@
       <c r="A69" s="98"/>
       <c r="B69" s="111"/>
       <c r="C69" s="112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D69" s="101"/>
       <c r="E69" s="113">
@@ -20630,7 +20630,7 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D70" s="101"/>
       <c r="E70" s="102">
@@ -20843,7 +20843,7 @@
       <c r="A71" s="98"/>
       <c r="B71" s="111"/>
       <c r="C71" s="112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D71" s="101"/>
       <c r="E71" s="113">
@@ -21056,7 +21056,7 @@
       <c r="A72" s="98"/>
       <c r="B72" s="122"/>
       <c r="C72" s="123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D72" s="101"/>
       <c r="E72" s="124">
@@ -21269,7 +21269,7 @@
       <c r="A73" s="98"/>
       <c r="B73" s="175"/>
       <c r="C73" s="176" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D73" s="177"/>
       <c r="E73" s="178">
@@ -21501,7 +21501,7 @@
         <v>7</v>
       </c>
       <c r="I75" s="190" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J75" s="191"/>
       <c r="K75" s="192"/>
@@ -21542,7 +21542,7 @@
         <v>8</v>
       </c>
       <c r="I76" s="190" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J76" s="191"/>
       <c r="K76" s="192"/>
@@ -21587,7 +21587,7 @@
     </row>
     <row r="78" spans="1:102" s="75" customFormat="1" ht="4.5" customHeight="1">
       <c r="B78" s="217" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C78" s="217"/>
       <c r="D78" s="217"/>
@@ -21703,7 +21703,7 @@
     </row>
     <row r="81" spans="1:102" s="191" customFormat="1" ht="15" customHeight="1">
       <c r="B81" s="193" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C81" s="194"/>
       <c r="D81" s="194"/>
